--- a/ECP - BVA - TABLES.xlsx
+++ b/ECP - BVA - TABLES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266FF764-23AC-46FF-8E38-E5D688A7ACA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF0B629-1016-4B63-BAA7-8BCE3B64EAD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11052" windowHeight="5568" activeTab="1" xr2:uid="{A6FDB006-A27C-4E30-9DD9-C87B92D6577C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="121">
   <si>
     <t>Critério</t>
   </si>
@@ -377,6 +377,24 @@
   </si>
   <si>
     <t>BVA25</t>
+  </si>
+  <si>
+    <t>BVA26</t>
+  </si>
+  <si>
+    <t>BVA27</t>
+  </si>
+  <si>
+    <t>BVA28</t>
+  </si>
+  <si>
+    <t>BVA29</t>
+  </si>
+  <si>
+    <t>BVA30</t>
+  </si>
+  <si>
+    <t>BVA31</t>
   </si>
 </sst>
 </file>
@@ -939,24 +957,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1028,6 +1028,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1364,70 +1382,70 @@
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="17">
         <v>3</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="14"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="18" t="s">
         <v>76</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1435,7 +1453,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
@@ -1444,72 +1462,72 @@
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="9"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="37" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="25">
         <v>2</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="39" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="59"/>
+      <c r="C10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="22" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="14"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="26" t="s">
         <v>63</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -1518,7 +1536,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
@@ -1530,72 +1548,72 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="22" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="9"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="37" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="34">
         <v>1</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="39" t="s">
         <v>31</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="40" t="s">
         <v>32</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="14"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="18" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -1604,7 +1622,7 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
@@ -1616,70 +1634,70 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30" t="s">
+      <c r="E20" s="24"/>
+      <c r="F20" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="9"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="37" t="s">
+      <c r="B21" s="59"/>
+      <c r="C21" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="34">
         <v>4</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="59"/>
+      <c r="C22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="40" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="11"/>
-      <c r="C23" s="41" t="s">
+      <c r="B23" s="62"/>
+      <c r="C23" s="35" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="23" t="s">
         <v>67</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -1687,7 +1705,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="3"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
@@ -1698,69 +1716,69 @@
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="22" t="s">
+      <c r="E26" s="24"/>
+      <c r="F26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="15"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="37" t="s">
+      <c r="B27" s="59"/>
+      <c r="C27" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="34">
         <v>3</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="G27" s="39" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="27" t="s">
+      <c r="B28" s="61"/>
+      <c r="C28" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="29" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="14"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="60"/>
+      <c r="C29" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="18" t="s">
         <v>71</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -1768,7 +1786,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="17"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="3"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
@@ -1777,69 +1795,69 @@
     </row>
     <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="30" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="15"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="37" t="s">
+      <c r="B33" s="59"/>
+      <c r="C33" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="34">
         <v>3</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="39" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="38" t="s">
+      <c r="B34" s="59"/>
+      <c r="C34" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="46" t="s">
+      <c r="G34" s="40" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="14"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="60"/>
+      <c r="C35" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="26" t="s">
         <v>75</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -1864,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA594D9-4521-490D-A22D-2713C7D98FE6}">
   <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1880,207 +1898,207 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="50" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="17">
         <v>-1</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="11"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="48" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="49" t="s">
         <v>81</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="50" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="17">
         <v>-1</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="37" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="11"/>
-      <c r="C9" s="54" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="48" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="49" t="s">
         <v>91</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="50" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="50" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="14"/>
-      <c r="C13" s="52" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="18">
         <v>-1</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="47" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="50" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="53">
         <v>-1</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="37" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="60" t="s">
+      <c r="B18" s="61"/>
+      <c r="C18" s="54" t="s">
         <v>97</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="22" t="s">
         <v>101</v>
       </c>
       <c r="F18" s="7">
         <v>-1</v>
       </c>
-      <c r="G18" s="62" t="s">
+      <c r="G18" s="56" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="60" t="s">
+      <c r="B19" s="61"/>
+      <c r="C19" s="54" t="s">
         <v>98</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="22" t="s">
         <v>102</v>
       </c>
       <c r="F19" s="7">
@@ -2091,20 +2109,20 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="14"/>
-      <c r="C20" s="58" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="20" t="s">
         <v>103</v>
       </c>
       <c r="F20" s="8">
         <v>-1</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="50" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2112,144 +2130,144 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="50" t="s">
+      <c r="E23" s="16"/>
+      <c r="F23" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="53">
         <v>-1</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="60" t="s">
+      <c r="B25" s="61"/>
+      <c r="C25" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="57" t="s">
         <v>110</v>
       </c>
       <c r="F25" s="7">
         <v>0</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="37" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="11"/>
-      <c r="C26" s="61" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="18">
         <v>-1</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="47" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="50" t="s">
+      <c r="E29" s="16"/>
+      <c r="F29" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="15"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="59"/>
+      <c r="C30" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="59">
+      <c r="D30" s="53">
         <v>1</v>
       </c>
-      <c r="E30" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="59">
+      <c r="E30" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="53">
         <v>0</v>
       </c>
-      <c r="G30" s="43" t="s">
-        <v>112</v>
+      <c r="G30" s="37" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
-      <c r="C31" s="60" t="s">
+      <c r="B31" s="61"/>
+      <c r="C31" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
       </c>
-      <c r="E31" s="63" t="s">
-        <v>110</v>
+      <c r="E31" s="57" t="s">
+        <v>116</v>
       </c>
       <c r="F31" s="7">
         <v>0</v>
       </c>
-      <c r="G31" s="43" t="s">
-        <v>113</v>
+      <c r="G31" s="37" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="11"/>
-      <c r="C32" s="61" t="s">
+      <c r="B32" s="62"/>
+      <c r="C32" s="55" t="s">
         <v>97</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="24">
+      <c r="E32" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="18">
         <v>-1</v>
       </c>
-      <c r="G32" s="53" t="s">
-        <v>114</v>
+      <c r="G32" s="37" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
